--- a/app/weather_data.xlsx
+++ b/app/weather_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,258 +453,258 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-09-21T00:00</t>
+          <t>2025-09-23T00:00</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>12.1</v>
       </c>
       <c r="C2" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-09-21T01:00</t>
+          <t>2025-09-23T01:00</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.6</v>
+        <v>11.9</v>
       </c>
       <c r="C3" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-09-21T02:00</t>
+          <t>2025-09-23T02:00</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.4</v>
+        <v>11.7</v>
       </c>
       <c r="C4" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-09-21T03:00</t>
+          <t>2025-09-23T03:00</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.8</v>
+        <v>11.4</v>
       </c>
       <c r="C5" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-09-21T04:00</t>
+          <t>2025-09-23T04:00</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.6</v>
+        <v>10.9</v>
       </c>
       <c r="C6" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-09-21T05:00</t>
+          <t>2025-09-23T05:00</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.3</v>
+        <v>10.8</v>
       </c>
       <c r="C7" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-09-21T06:00</t>
+          <t>2025-09-23T06:00</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.2</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-09-21T07:00</t>
+          <t>2025-09-23T07:00</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.1</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-09-21T08:00</t>
+          <t>2025-09-23T08:00</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>11.1</v>
       </c>
       <c r="C10" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-09-21T09:00</t>
+          <t>2025-09-23T09:00</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.5</v>
+        <v>11.4</v>
       </c>
       <c r="C11" t="n">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-09-21T10:00</t>
+          <t>2025-09-23T10:00</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.5</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-09-21T11:00</t>
+          <t>2025-09-23T11:00</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.7</v>
+        <v>12.4</v>
       </c>
       <c r="C13" t="n">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-09-21T12:00</t>
+          <t>2025-09-23T12:00</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23.4</v>
+        <v>12.7</v>
       </c>
       <c r="C14" t="n">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-09-21T13:00</t>
+          <t>2025-09-23T13:00</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.7</v>
+        <v>12.9</v>
       </c>
       <c r="C15" t="n">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-09-21T14:00</t>
+          <t>2025-09-23T14:00</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.8</v>
+        <v>12.7</v>
       </c>
       <c r="C16" t="n">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-09-21T15:00</t>
+          <t>2025-09-23T15:00</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22.3</v>
+        <v>12.2</v>
       </c>
       <c r="C17" t="n">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-09-21T16:00</t>
+          <t>2025-09-23T16:00</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21.3</v>
+        <v>11.5</v>
       </c>
       <c r="C18" t="n">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-09-21T17:00</t>
+          <t>2025-09-23T17:00</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.3</v>
+        <v>10.5</v>
       </c>
       <c r="C19" t="n">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-09-21T18:00</t>
+          <t>2025-09-23T18:00</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17.4</v>
+        <v>10.3</v>
       </c>
       <c r="C20" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-09-21T19:00</t>
+          <t>2025-09-23T19:00</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17.2</v>
+        <v>10.4</v>
       </c>
       <c r="C21" t="n">
         <v>94</v>
@@ -713,63 +713,63 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-09-21T20:00</t>
+          <t>2025-09-23T20:00</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17.1</v>
+        <v>10.5</v>
       </c>
       <c r="C22" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-09-21T21:00</t>
+          <t>2025-09-23T21:00</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16.6</v>
+        <v>10.6</v>
       </c>
       <c r="C23" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-09-21T22:00</t>
+          <t>2025-09-23T22:00</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>16.3</v>
+        <v>10.8</v>
       </c>
       <c r="C24" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-09-21T23:00</t>
+          <t>2025-09-23T23:00</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.4</v>
+        <v>10.6</v>
       </c>
       <c r="C25" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-09-22T00:00</t>
+          <t>2025-09-24T00:00</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>16.4</v>
+        <v>10.7</v>
       </c>
       <c r="C26" t="n">
         <v>94</v>
@@ -778,154 +778,154 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-09-22T01:00</t>
+          <t>2025-09-24T01:00</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16.1</v>
+        <v>10.7</v>
       </c>
       <c r="C27" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-09-22T02:00</t>
+          <t>2025-09-24T02:00</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16</v>
+        <v>10.6</v>
       </c>
       <c r="C28" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-09-22T03:00</t>
+          <t>2025-09-24T03:00</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>16</v>
+        <v>10.7</v>
       </c>
       <c r="C29" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-09-22T04:00</t>
+          <t>2025-09-24T04:00</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>15.5</v>
+        <v>10.9</v>
       </c>
       <c r="C30" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-09-22T05:00</t>
+          <t>2025-09-24T05:00</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13.6</v>
+        <v>10.9</v>
       </c>
       <c r="C31" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-09-22T06:00</t>
+          <t>2025-09-24T06:00</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-09-22T07:00</t>
+          <t>2025-09-24T07:00</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>11.9</v>
+        <v>11.2</v>
       </c>
       <c r="C33" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-09-22T08:00</t>
+          <t>2025-09-24T08:00</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12.2</v>
+        <v>11.2</v>
       </c>
       <c r="C34" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-09-22T09:00</t>
+          <t>2025-09-24T09:00</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-09-22T10:00</t>
+          <t>2025-09-24T10:00</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>12.7</v>
+        <v>11.4</v>
       </c>
       <c r="C36" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-09-22T11:00</t>
+          <t>2025-09-24T11:00</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13.7</v>
+        <v>11.5</v>
       </c>
       <c r="C37" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-09-22T12:00</t>
+          <t>2025-09-24T12:00</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>14</v>
+        <v>12.2</v>
       </c>
       <c r="C38" t="n">
         <v>84</v>
@@ -934,50 +934,50 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-09-22T13:00</t>
+          <t>2025-09-24T13:00</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>14.3</v>
+        <v>12.3</v>
       </c>
       <c r="C39" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-09-22T14:00</t>
+          <t>2025-09-24T14:00</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>14.5</v>
+        <v>12.2</v>
       </c>
       <c r="C40" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-09-22T15:00</t>
+          <t>2025-09-24T15:00</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>13.6</v>
+        <v>12</v>
       </c>
       <c r="C41" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-09-22T16:00</t>
+          <t>2025-09-24T16:00</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>13.5</v>
+        <v>11.6</v>
       </c>
       <c r="C42" t="n">
         <v>87</v>
@@ -986,11 +986,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-09-22T17:00</t>
+          <t>2025-09-24T17:00</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>13.1</v>
+        <v>11.4</v>
       </c>
       <c r="C43" t="n">
         <v>87</v>
@@ -999,50 +999,50 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-09-22T18:00</t>
+          <t>2025-09-24T18:00</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>12.7</v>
+        <v>11</v>
       </c>
       <c r="C44" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-09-22T19:00</t>
+          <t>2025-09-24T19:00</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>12.5</v>
+        <v>10.8</v>
       </c>
       <c r="C45" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-09-22T20:00</t>
+          <t>2025-09-24T20:00</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>12.2</v>
+        <v>10.7</v>
       </c>
       <c r="C46" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-09-22T21:00</t>
+          <t>2025-09-24T21:00</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>12.1</v>
+        <v>10.5</v>
       </c>
       <c r="C47" t="n">
         <v>91</v>
@@ -1051,297 +1051,297 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-09-22T22:00</t>
+          <t>2025-09-24T22:00</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>12</v>
+        <v>10.2</v>
       </c>
       <c r="C48" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-09-22T23:00</t>
+          <t>2025-09-24T23:00</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>12</v>
+        <v>10.2</v>
       </c>
       <c r="C49" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-09-23T00:00</t>
+          <t>2025-09-25T00:00</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>12.1</v>
+        <v>10.2</v>
       </c>
       <c r="C50" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-09-23T01:00</t>
+          <t>2025-09-25T01:00</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>11.9</v>
+        <v>10</v>
       </c>
       <c r="C51" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-09-23T02:00</t>
+          <t>2025-09-25T02:00</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>11.7</v>
+        <v>10.1</v>
       </c>
       <c r="C52" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-09-23T03:00</t>
+          <t>2025-09-25T03:00</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>11.4</v>
+        <v>10</v>
       </c>
       <c r="C53" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-09-23T04:00</t>
+          <t>2025-09-25T04:00</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>10.9</v>
+        <v>9.9</v>
       </c>
       <c r="C54" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-09-23T05:00</t>
+          <t>2025-09-25T05:00</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>10.8</v>
+        <v>10.1</v>
       </c>
       <c r="C55" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-09-23T06:00</t>
+          <t>2025-09-25T06:00</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C56" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-09-23T07:00</t>
+          <t>2025-09-25T07:00</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>11</v>
+        <v>10.4</v>
       </c>
       <c r="C57" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-09-23T08:00</t>
+          <t>2025-09-25T08:00</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="C58" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-09-23T09:00</t>
+          <t>2025-09-25T09:00</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="C59" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-09-23T10:00</t>
+          <t>2025-09-25T10:00</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C60" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-09-23T11:00</t>
+          <t>2025-09-25T11:00</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="C61" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-09-23T12:00</t>
+          <t>2025-09-25T12:00</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>12.7</v>
+        <v>13.5</v>
       </c>
       <c r="C62" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-09-23T13:00</t>
+          <t>2025-09-25T13:00</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>12.9</v>
+        <v>14.1</v>
       </c>
       <c r="C63" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-09-23T14:00</t>
+          <t>2025-09-25T14:00</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>12.7</v>
+        <v>14.2</v>
       </c>
       <c r="C64" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-09-23T15:00</t>
+          <t>2025-09-25T15:00</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>12.2</v>
+        <v>13.9</v>
       </c>
       <c r="C65" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-09-23T16:00</t>
+          <t>2025-09-25T16:00</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="C66" t="n">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-09-23T17:00</t>
+          <t>2025-09-25T17:00</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="C67" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-09-23T18:00</t>
+          <t>2025-09-25T18:00</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>10.3</v>
+        <v>12.2</v>
       </c>
       <c r="C68" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-09-23T19:00</t>
+          <t>2025-09-25T19:00</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>10.4</v>
+        <v>11.8</v>
       </c>
       <c r="C69" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-09-23T20:00</t>
+          <t>2025-09-25T20:00</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>10.5</v>
+        <v>11.3</v>
       </c>
       <c r="C70" t="n">
         <v>91</v>
@@ -1350,11 +1350,11 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-09-23T21:00</t>
+          <t>2025-09-25T21:00</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>10.6</v>
+        <v>11</v>
       </c>
       <c r="C71" t="n">
         <v>92</v>
@@ -1363,339 +1363,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-09-23T22:00</t>
+          <t>2025-09-25T22:00</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="C72" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-09-23T23:00</t>
+          <t>2025-09-25T23:00</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>10.6</v>
+        <v>10.2</v>
       </c>
       <c r="C73" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2025-09-24T00:00</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C74" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2025-09-24T01:00</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C75" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2025-09-24T02:00</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="C76" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2025-09-24T03:00</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C77" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2025-09-24T04:00</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C78" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2025-09-24T05:00</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C79" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2025-09-24T06:00</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>11</v>
-      </c>
-      <c r="C80" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2025-09-24T07:00</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C81" t="n">
         <v>93</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2025-09-24T08:00</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C82" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2025-09-24T09:00</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>11</v>
-      </c>
-      <c r="C83" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2025-09-24T10:00</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C84" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2025-09-24T11:00</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C85" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2025-09-24T12:00</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C86" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2025-09-24T13:00</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C87" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2025-09-24T14:00</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C88" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2025-09-24T15:00</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>12</v>
-      </c>
-      <c r="C89" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2025-09-24T16:00</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C90" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2025-09-24T17:00</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C91" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2025-09-24T18:00</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>11</v>
-      </c>
-      <c r="C92" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2025-09-24T19:00</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C93" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2025-09-24T20:00</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="C94" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2025-09-24T21:00</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="C95" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2025-09-24T22:00</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="C96" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2025-09-24T23:00</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="C97" t="n">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
